--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P05_trail10 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P05_trail10 Features.xlsx
@@ -3427,7 +3427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z9"/>
+  <dimension ref="A1:X9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3438,29 +3438,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="19" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="18" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3481,115 +3479,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -3606,72 +3594,66 @@
         <v>1.514857644881557e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-2.134429296527687</v>
+        <v>7.313768488448118e-07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>4.090303697156569</v>
+        <v>2.051451718834739e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>7.313768488448118e-07</v>
+        <v>0.06986194473944017</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>2.051451718834739e-06</v>
+        <v>0.1457952509337046</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.06986194473944017</v>
+        <v>0.02610954033524373</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.1457952509337046</v>
+        <v>1.898546066058569</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.02610954033524373</v>
+        <v>2.469178887873178</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.904514215861674</v>
+        <v>4.07346659270912</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>2.469178887873178</v>
+        <v>1.393383874294181e-16</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4.07346659270912</v>
+        <v>1018854858.926862</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>1.393383874294181e-16</v>
+        <v>1.170198405054963e-07</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>1018854858.926862</v>
+        <v>144.6423342972523</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>1.170198405054963e-07</v>
+        <v>0.0001594391714033039</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>144.6423342972523</v>
+        <v>9.178226977201659</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001594391714033039</v>
+        <v>1.394489083657598</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>9.178226977201659</v>
+        <v>0.01343113195409419</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.394489083657598</v>
+        <v>3.173931586222887</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.01343113195409419</v>
+        <v>0.959898883166533</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>3.173931586222887</v>
+        <v>1.346197334782449</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.959898883166533</v>
+        <v>34</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.346197334782449</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.5167773476382214</v>
       </c>
     </row>
@@ -3686,72 +3668,66 @@
         <v>1.32515899060144e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-2.12223857219176</v>
+        <v>6.427559516416101e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>4.185360334787696</v>
+        <v>2.061318733031897e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>6.427559516416101e-07</v>
+        <v>0.06962164295314845</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>2.061318733031897e-06</v>
+        <v>0.1478325039767493</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.06962164295314845</v>
+        <v>0.02667918532408949</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.1478325039767493</v>
+        <v>1.897420068271092</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.02667918532408949</v>
+        <v>2.395770902562672</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.893933110135194</v>
+        <v>3.87867725659761</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>2.395770902562672</v>
+        <v>1.536851165296175e-16</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>3.87867725659761</v>
+        <v>959779770.2080158</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>1.536851165296175e-16</v>
+        <v>1.242159062910568e-07</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>959779770.2080158</v>
+        <v>141.5712264484129</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>1.242159062910568e-07</v>
+        <v>0.000144091017139299</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>141.5712264484129</v>
+        <v>10.71713253816312</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.000144091017139299</v>
+        <v>1.122047771361997</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>10.71713253816312</v>
+        <v>0.01654985184622263</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.122047771361997</v>
+        <v>3.102854428700601</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.01654985184622263</v>
+        <v>0.960394286271067</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>3.102854428700601</v>
+        <v>1.354289126017789</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.960394286271067</v>
+        <v>35</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.354289126017789</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.5264744244979765</v>
       </c>
     </row>
@@ -3766,72 +3742,66 @@
         <v>1.15849382326731e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-2.101156250918463</v>
+        <v>5.715119333738667e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>4.321512986493109</v>
+        <v>2.069993511045614e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>5.715119333738667e-07</v>
+        <v>0.07051852239980376</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>2.069993511045614e-06</v>
+        <v>0.1539833919387507</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.07051852239980376</v>
+        <v>0.0286634988233765</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.1539833919387507</v>
+        <v>1.892560456868505</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.0286634988233765</v>
+        <v>2.111134100621419</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.888424889121846</v>
+        <v>3.946002925178122</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>2.111134100621419</v>
+        <v>1.484855842877092e-16</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>3.946002925178122</v>
+        <v>988259434.3742939</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>1.484855842877092e-16</v>
+        <v>1.205560317000423e-07</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>988259434.3742939</v>
+        <v>145.0194421778923</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>1.205560317000423e-07</v>
+        <v>0.0001427200777449465</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>145.0194421778923</v>
+        <v>10.56059155861029</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001427200777449465</v>
+        <v>1.115570157043645</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>10.56059155861029</v>
+        <v>0.01591701281594535</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.115570157043645</v>
+        <v>3.064046907243435</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.01591701281594535</v>
+        <v>0.960054592279297</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>3.064046907243435</v>
+        <v>1.407163161744042</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.960054592279297</v>
+        <v>39</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.407163161744042</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.5207922404096634</v>
       </c>
     </row>
@@ -3846,72 +3816,66 @@
         <v>1.009152776958467e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-2.047497658103603</v>
+        <v>5.104500077115657e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>4.381695489304187</v>
+        <v>2.0777126562681e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>5.104500077115657e-07</v>
+        <v>0.07235355945777858</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>2.0777126562681e-06</v>
+        <v>0.163047388131388</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.07235355945777858</v>
+        <v>0.03179827412488215</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.163047388131388</v>
+        <v>1.893446170821574</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.03179827412488215</v>
+        <v>2.259595090198284</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.888052967234545</v>
+        <v>4.032933362475552</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>2.259595090198284</v>
+        <v>1.421533195762616e-16</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>4.032933362475552</v>
+        <v>1029401350.445164</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>1.421533195762616e-16</v>
+        <v>1.156621389883724e-07</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>1029401350.445164</v>
+        <v>150.6352016392913</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>1.156621389883724e-07</v>
+        <v>0.0001441818402753868</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>150.6352016392913</v>
+        <v>9.267666718824067</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001441818402753868</v>
+        <v>1.233121446940065</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>9.267666718824067</v>
+        <v>0.01238372728016898</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.233121446940065</v>
+        <v>3.146580234036416</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.01238372728016898</v>
+        <v>0.9609343720577663</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>3.146580234036416</v>
+        <v>1.416697145545431</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9609343720577663</v>
+        <v>33</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.416697145545431</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.4924734255441908</v>
       </c>
     </row>
@@ -3926,72 +3890,66 @@
         <v>8.74792334258064e-08</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>-1.932607148003103</v>
+        <v>4.546342074785185e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>4.210613416417191</v>
+        <v>2.084627266328514e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>4.546342074785185e-07</v>
+        <v>0.07479131186521745</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>2.084627266328514e-06</v>
+        <v>0.1737593171693608</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0.07479131186521745</v>
+        <v>0.03576016854576476</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.1737593171693608</v>
+        <v>1.883883351051044</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.03576016854576476</v>
+        <v>2.440044041692668</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.871391684584633</v>
+        <v>4.393104725777249</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>2.440044041692668</v>
+        <v>1.536404469683184e-16</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>4.393104725777249</v>
+        <v>985843295.2000113</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>1.536404469683184e-16</v>
+        <v>1.209727522573256e-07</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>985843295.2000113</v>
+        <v>149.3211534961164</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>1.209727522573256e-07</v>
+        <v>0.0001405187458042947</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>149.3211534961164</v>
+        <v>7.871337786913642</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001405187458042947</v>
+        <v>1.537748039922811</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>7.871337786913642</v>
+        <v>0.008706254628840671</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.537748039922811</v>
+        <v>3.320754881200767</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.008706254628840671</v>
+        <v>0.9597683100526189</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>3.320754881200767</v>
+        <v>1.393101774686188</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9597683100526189</v>
+        <v>25</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.393101774686188</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.4595979340979304</v>
       </c>
     </row>
@@ -4006,72 +3964,66 @@
         <v>7.563030116574632e-08</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>-1.732948550951311</v>
+        <v>3.990324516929483e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>3.669439589885407</v>
+        <v>2.090780471630431e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>3.990324516929483e-07</v>
+        <v>0.07616251511489429</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>2.090780471630431e-06</v>
+        <v>0.182453938817044</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>0.07616251511489429</v>
+        <v>0.03905486311450963</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.182453938817044</v>
+        <v>1.881093718831908</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.03905486311450963</v>
+        <v>2.068927689232511</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.864692728778766</v>
+        <v>4.434777308529082</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>2.068927689232511</v>
+        <v>2.373299134394774e-16</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>4.434777308529082</v>
+        <v>640351665.8825691</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>2.373299134394774e-16</v>
+        <v>1.860257103627818e-07</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>640351665.8825691</v>
+        <v>97.31719176197888</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>1.860257103627818e-07</v>
+        <v>0.0001444499532371545</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>97.31719176197888</v>
+        <v>8.644159510409661</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001444499532371545</v>
+        <v>1.797439368311746</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>8.644159510409661</v>
+        <v>0.0107935162623114</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.797439368311746</v>
+        <v>3.426766990168094</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.0107935162623114</v>
+        <v>0.9595315295469796</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>3.426766990168094</v>
+        <v>1.488203520817249</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9595315295469796</v>
+        <v>25</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.488203520817249</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.4339625319151875</v>
       </c>
     </row>
@@ -4086,72 +4038,66 @@
         <v>6.569341671474525e-08</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>-1.459598754976737</v>
+        <v>3.434326040806291e-07</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>2.820076254651815</v>
+        <v>2.096123773329607e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>3.434326040806291e-07</v>
+        <v>0.07500290300587951</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>2.096123773329607e-06</v>
+        <v>0.1853881160278064</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>0.07500290300587951</v>
+        <v>0.03994970535537189</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.1853881160278064</v>
+        <v>1.876762531905258</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.03994970535537189</v>
+        <v>1.974045081098381</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.849987500214205</v>
+        <v>4.105571097810823</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>1.974045081098381</v>
+        <v>3.051101957458511e-16</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>4.105571097810823</v>
+        <v>488061776.9722244</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>3.051101957458511e-16</v>
+        <v>2.435755821191767e-07</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>488061776.9722244</v>
+        <v>72.67856003339062</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>2.435755821191767e-07</v>
+        <v>0.0001419462098189272</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>72.67856003339062</v>
+        <v>11.93694606840881</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.0001419462098189272</v>
+        <v>1.352427045443247</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>11.93694606840881</v>
+        <v>0.02022601216493844</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.352427045443247</v>
+        <v>3.310430432165008</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.02022601216493844</v>
+        <v>0.9599260195121684</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>3.310430432165008</v>
+        <v>1.481398983118149</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9599260195121684</v>
+        <v>25</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.481398983118149</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>0.4554575120508061</v>
       </c>
     </row>
@@ -4166,72 +4112,66 @@
         <v>5.784384068841934e-08</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>-1.162954339319273</v>
+        <v>2.929061154551445e-07</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>1.937968729662605</v>
+        <v>2.100644797043351e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>2.929061154551445e-07</v>
+        <v>0.07157893652121704</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>2.100644797043351e-06</v>
+        <v>0.1837160845742412</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>0.07157893652121704</v>
+        <v>0.03883511167524908</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.1837160845742412</v>
+        <v>1.881546744954363</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.03883511167524908</v>
+        <v>2.206924179044584</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.856144600308574</v>
+        <v>3.96995676003215</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>2.206924179044584</v>
+        <v>3.263114568529385e-16</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>3.96995676003215</v>
+        <v>455101926.9765612</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>3.263114568529385e-16</v>
+        <v>2.614079166904466e-07</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>455101926.9765612</v>
+        <v>67.58489929065975</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>2.614079166904466e-07</v>
+        <v>0.0001320356954554478</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>67.58489929065975</v>
+        <v>12.69332004885632</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.0001320356954554478</v>
+        <v>1.172387335229017</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>12.69332004885632</v>
+        <v>0.02127364061500305</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.172387335229017</v>
+        <v>3.138609096117993</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.02127364061500305</v>
+        <v>0.9597163735766451</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>3.138609096117993</v>
+        <v>1.439599883548627</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9597163735766451</v>
+        <v>22</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.439599883548627</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>0.4279253516418929</v>
       </c>
     </row>
@@ -4608,7 +4548,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.315965421284162</v>
+        <v>1.32926709310616</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.8813981545995</v>
@@ -4697,7 +4637,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.306412209173637</v>
+        <v>1.319345225323655</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.956611944149456</v>
@@ -4786,7 +4726,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.317043574133427</v>
+        <v>1.330381668345169</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.946185389218238</v>
@@ -4875,7 +4815,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.322569535557006</v>
+        <v>1.336296803765032</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.821991033548102</v>
@@ -4964,7 +4904,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.374659265956476</v>
+        <v>1.396809726430858</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.250356063947025</v>
@@ -5053,7 +4993,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.373717625817857</v>
+        <v>1.395771429624962</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.554423064121272</v>
@@ -5142,7 +5082,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.37364347970395</v>
+        <v>1.399583162747254</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.517558154536416</v>
@@ -5231,7 +5171,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.372430555259134</v>
+        <v>1.399351671422594</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.393401645165767</v>
@@ -5320,7 +5260,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.369236927352128</v>
+        <v>1.394954474266111</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.278789161695207</v>
@@ -5409,7 +5349,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.380665179442077</v>
+        <v>1.40420696773691</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.428129692835304</v>
@@ -5498,7 +5438,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.370318821547424</v>
+        <v>1.394869619234113</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.432740455976734</v>
@@ -5587,7 +5527,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.37633199949709</v>
+        <v>1.407486598108038</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.749966043863251</v>
@@ -5676,7 +5616,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.387700243699481</v>
+        <v>1.417392941778927</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.657091969730925</v>
@@ -5765,7 +5705,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.401247519659655</v>
+        <v>1.429701345279665</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.673709601903088</v>
@@ -5854,7 +5794,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.404806123096785</v>
+        <v>1.436800503746595</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.619287820186692</v>
@@ -5943,7 +5883,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.426488522965172</v>
+        <v>1.456334620716311</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.655819049864057</v>
@@ -6032,7 +5972,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.45151451534195</v>
+        <v>1.479786305348777</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.450437136956328</v>
@@ -6121,7 +6061,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.459373390721395</v>
+        <v>1.485668528311639</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.681826420438697</v>
@@ -6210,7 +6150,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.484457888170349</v>
+        <v>1.510923834687744</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.448246838142431</v>
@@ -6299,7 +6239,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.506280540570941</v>
+        <v>1.531730065264871</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.671152329644647</v>
@@ -6388,7 +6328,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.521828155803403</v>
+        <v>1.548358803718688</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.6769975569253</v>
@@ -6477,7 +6417,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.561451326791813</v>
+        <v>1.58350556951816</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.15166922194644</v>
@@ -6566,7 +6506,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.604262247794769</v>
+        <v>1.623403434559443</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.588327590607316</v>
@@ -6655,7 +6595,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.624265276335631</v>
+        <v>1.644907472380515</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.63350148908773</v>
@@ -6744,7 +6684,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.600532125842913</v>
+        <v>1.619294471989009</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.233370451834628</v>
@@ -6833,7 +6773,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.665273190315259</v>
+        <v>1.673090541433429</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.334138976010634</v>
@@ -6922,7 +6862,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.672978588511371</v>
+        <v>1.678165573554744</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.769402399500975</v>
@@ -7011,7 +6951,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.646084059553742</v>
+        <v>1.655392241711656</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.766443036571536</v>
@@ -7100,7 +7040,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.637274501525123</v>
+        <v>1.645490510114733</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.490372306344139</v>
@@ -7189,7 +7129,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.627801969377941</v>
+        <v>1.631261149920914</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.872342614403836</v>
@@ -7278,7 +7218,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.599378026921037</v>
+        <v>1.60506209370584</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.731080405742893</v>
@@ -7367,7 +7307,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.55797148995255</v>
+        <v>1.564899461850922</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.072880118383104</v>
@@ -7456,7 +7396,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.542766954631845</v>
+        <v>1.552023700210085</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.129099967546032</v>
@@ -7545,7 +7485,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.536701108460408</v>
+        <v>1.54442540571491</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.098427953916354</v>
@@ -7634,7 +7574,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.530858970138664</v>
+        <v>1.537561636105181</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.165122368713402</v>
@@ -7723,7 +7663,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.51940753782778</v>
+        <v>1.521727237184159</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.19779751564097</v>
@@ -7812,7 +7752,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.496137482952267</v>
+        <v>1.499876102784679</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.118124476497059</v>
@@ -7901,7 +7841,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.472557670903981</v>
+        <v>1.47411188662975</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.127646846457634</v>
@@ -7990,7 +7930,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.460781869103173</v>
+        <v>1.46278722485111</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.161240338509081</v>
@@ -8079,7 +8019,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.429074766425703</v>
+        <v>1.430842779892274</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.128401269177045</v>
@@ -8168,7 +8108,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.417802191057314</v>
+        <v>1.425615665492504</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.148153348712327</v>
@@ -8257,7 +8197,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.416644981312384</v>
+        <v>1.425966935731534</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.222837150492583</v>
@@ -8346,7 +8286,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.422205350616413</v>
+        <v>1.43607074317773</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.224330824128043</v>
@@ -8435,7 +8375,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.442395823681533</v>
+        <v>1.457857560296407</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.234047668035132</v>
@@ -8524,7 +8464,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.446032118558255</v>
+        <v>1.459900320849899</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.192330269642149</v>
@@ -8613,7 +8553,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.46175913630723</v>
+        <v>1.477163963664287</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.201099895139329</v>
@@ -8702,7 +8642,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.488812565880806</v>
+        <v>1.502269030648931</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.372680841062136</v>
@@ -8791,7 +8731,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.495207608626457</v>
+        <v>1.506806074085705</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.198488168135387</v>
@@ -8880,7 +8820,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.492076441232342</v>
+        <v>1.502805604300569</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.215931075761978</v>
@@ -8969,7 +8909,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.479790638552432</v>
+        <v>1.493871662373582</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.215208979005846</v>
@@ -9058,7 +8998,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.494217506136328</v>
+        <v>1.511508446865444</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.294886094508818</v>
@@ -9147,7 +9087,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.498965048077718</v>
+        <v>1.515400367381539</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.191832350803142</v>
@@ -9236,7 +9176,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.510587162889543</v>
+        <v>1.529241884410242</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.18987268014944</v>
@@ -9522,7 +9462,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.285573471307755</v>
+        <v>1.295999615404517</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.366226747629567</v>
@@ -9611,7 +9551,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.273864601527707</v>
+        <v>1.284130661880884</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.368092350585175</v>
@@ -9700,7 +9640,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.268916665475173</v>
+        <v>1.272614287689241</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.205187331010483</v>
@@ -9789,7 +9729,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.252421321696877</v>
+        <v>1.255069086097178</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.347595069316998</v>
@@ -9878,7 +9818,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.246281548358451</v>
+        <v>1.245516430292765</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.247694481573425</v>
@@ -9967,7 +9907,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.240235491527174</v>
+        <v>1.237707453764084</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.320229056700528</v>
@@ -10056,7 +9996,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.242831986542927</v>
+        <v>1.24100022159038</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.123230130380275</v>
@@ -10145,7 +10085,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.236509556292639</v>
+        <v>1.232165418689347</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.259205581204531</v>
@@ -10234,7 +10174,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.223655889738047</v>
+        <v>1.220847065974256</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.209036436800079</v>
@@ -10323,7 +10263,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.228318307512008</v>
+        <v>1.22391862164438</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.071286037145582</v>
@@ -10412,7 +10352,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.222068169565036</v>
+        <v>1.219081260766581</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.295226477972502</v>
@@ -10501,7 +10441,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.2120945952089</v>
+        <v>1.210172135509116</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.211415717026879</v>
@@ -10590,7 +10530,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.21981853084793</v>
+        <v>1.219786128056574</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.27216620312421</v>
@@ -10679,7 +10619,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.224985378570451</v>
+        <v>1.223342673527124</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.123213150277173</v>
@@ -10768,7 +10708,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.237781455136155</v>
+        <v>1.23954718837692</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.352807653931732</v>
@@ -10857,7 +10797,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.250051204913458</v>
+        <v>1.244833628812646</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.385414783478746</v>
@@ -10946,7 +10886,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.259900062773402</v>
+        <v>1.250047692480254</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.126915345806986</v>
@@ -11035,7 +10975,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.269791017734292</v>
+        <v>1.264132131530377</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.129802586340235</v>
@@ -11124,7 +11064,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.30324881911617</v>
+        <v>1.289450274974714</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.05819198775771</v>
@@ -11213,7 +11153,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.321528473676173</v>
+        <v>1.310770126345606</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.294804876518501</v>
@@ -11302,7 +11242,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.34682250287864</v>
+        <v>1.335609672432027</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.311419564469843</v>
@@ -11391,7 +11331,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.372196464717695</v>
+        <v>1.357093949960127</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.043934122092263</v>
@@ -11480,7 +11420,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.404413005829391</v>
+        <v>1.387673008607294</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.195165934831107</v>
@@ -11569,7 +11509,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.44184857312437</v>
+        <v>1.421785746858234</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.21578721373941</v>
@@ -11658,7 +11598,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.449351158841886</v>
+        <v>1.41991352507759</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.032297184240619</v>
@@ -11747,7 +11687,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.517243174758285</v>
+        <v>1.474297448040523</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.02538484814348</v>
@@ -11836,7 +11776,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.545873357848867</v>
+        <v>1.497912617749013</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.429008147608402</v>
@@ -11925,7 +11865,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.541297424379563</v>
+        <v>1.493251457139697</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.51134298867934</v>
@@ -12014,7 +11954,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.572360909209132</v>
+        <v>1.516374527959762</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.67062468810318</v>
@@ -12103,7 +12043,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.540268073817556</v>
+        <v>1.486730508407454</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.749432985081559</v>
@@ -12192,7 +12132,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.500300892026393</v>
+        <v>1.469352600066155</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.559700375855178</v>
@@ -12281,7 +12221,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.491011126077893</v>
+        <v>1.468785412847425</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.469476575246091</v>
@@ -12370,7 +12310,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.478521801030092</v>
+        <v>1.454150965634328</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.483219994897871</v>
@@ -12459,7 +12399,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.466549749456826</v>
+        <v>1.450984657607498</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.4803505324067</v>
@@ -12548,7 +12488,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.466224304570735</v>
+        <v>1.448178133522103</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.398233429627277</v>
@@ -12637,7 +12577,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.469585576243719</v>
+        <v>1.448936292822793</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.406457139747357</v>
@@ -12726,7 +12666,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.444302515351631</v>
+        <v>1.42494319131971</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.332766584603985</v>
@@ -12815,7 +12755,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.398772599523734</v>
+        <v>1.386245754221959</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.364848392515672</v>
@@ -12904,7 +12844,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.385128424871837</v>
+        <v>1.373796657819112</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.272732245825228</v>
@@ -12993,7 +12933,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.371433735707956</v>
+        <v>1.357160427426197</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.461354585562896</v>
@@ -13082,7 +13022,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.358000731040198</v>
+        <v>1.353413650222149</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.484246155919728</v>
@@ -13171,7 +13111,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.350692305728379</v>
+        <v>1.348069966342476</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.454228027407018</v>
@@ -13260,7 +13200,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.33637135293685</v>
+        <v>1.334487232831346</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.398171440726641</v>
@@ -13349,7 +13289,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.351400767744867</v>
+        <v>1.351200204063299</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.394812483955803</v>
@@ -13438,7 +13378,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.377705470390449</v>
+        <v>1.377669877727797</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.45539788997666</v>
@@ -13527,7 +13467,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.386707522946975</v>
+        <v>1.382860011410601</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.235993520450378</v>
@@ -13616,7 +13556,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.380271095922518</v>
+        <v>1.374191115202984</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.316752170859886</v>
@@ -13705,7 +13645,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.390877261071356</v>
+        <v>1.380795794475371</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.250951235032954</v>
@@ -13794,7 +13734,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.390500604207985</v>
+        <v>1.379973982590049</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.417940900797464</v>
@@ -13883,7 +13823,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.386728414114774</v>
+        <v>1.374516133498755</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.40724442049485</v>
@@ -13972,7 +13912,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.358654923014037</v>
+        <v>1.347936954624572</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.42149350911978</v>
@@ -14061,7 +14001,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.368713523260386</v>
+        <v>1.356702820291541</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.466215181183522</v>
@@ -14150,7 +14090,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.397951743642657</v>
+        <v>1.386626412894116</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.35703386434505</v>
@@ -14436,7 +14376,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.619578264780673</v>
+        <v>1.606900511600301</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.743149186279397</v>
@@ -14525,7 +14465,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.616329073765771</v>
+        <v>1.602481867363801</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.693401633033065</v>
@@ -14614,7 +14554,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.61883492949225</v>
+        <v>1.605654794711158</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.696062137120159</v>
@@ -14703,7 +14643,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.624990824753447</v>
+        <v>1.614561600574382</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.729963610365963</v>
@@ -14792,7 +14732,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.613037158752819</v>
+        <v>1.611043970054546</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.731954539080681</v>
@@ -14881,7 +14821,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.618469378977198</v>
+        <v>1.613096008430909</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.334825361319644</v>
@@ -14970,7 +14910,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.630621552487119</v>
+        <v>1.620693088155549</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.565985312679061</v>
@@ -15059,7 +14999,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.622292393967883</v>
+        <v>1.616024483588579</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.582598393585787</v>
@@ -15148,7 +15088,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.604275487973571</v>
+        <v>1.596576612105797</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.695687326758218</v>
@@ -15237,7 +15177,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.609771804063458</v>
+        <v>1.596949649815462</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.617068409368879</v>
@@ -15326,7 +15266,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.585902932438611</v>
+        <v>1.578714392511114</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.692070153623847</v>
@@ -15415,7 +15355,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.60376433657287</v>
+        <v>1.58966171885606</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.429328230010963</v>
@@ -15504,7 +15444,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.607790234528398</v>
+        <v>1.593154291868433</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.368611788818129</v>
@@ -15593,7 +15533,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.610804187046381</v>
+        <v>1.59369039823861</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.344651049912354</v>
@@ -15682,7 +15622,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.610617746915117</v>
+        <v>1.597097882017485</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.130393064732458</v>
@@ -15771,7 +15711,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.627655241502453</v>
+        <v>1.6101870793783</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.095026428866581</v>
@@ -15860,7 +15800,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.635813074560251</v>
+        <v>1.616376566712446</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.485326925430138</v>
@@ -15949,7 +15889,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.646653921621075</v>
+        <v>1.621439124604869</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.230961907459412</v>
@@ -16038,7 +15978,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.667937709063864</v>
+        <v>1.635109730277232</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.892162991080383</v>
@@ -16127,7 +16067,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.678708018979991</v>
+        <v>1.647280901481982</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.163451446861278</v>
@@ -16216,7 +16156,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.686073588815592</v>
+        <v>1.653767252797512</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.265326312652123</v>
@@ -16305,7 +16245,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.701134026840941</v>
+        <v>1.666722717003501</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.68521124761584</v>
@@ -16394,7 +16334,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.7231197136649</v>
+        <v>1.682783821753375</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.37390914785373</v>
@@ -16483,7 +16423,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.735452675765676</v>
+        <v>1.694808189361515</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.21702231902129</v>
@@ -16572,7 +16512,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.716031693882139</v>
+        <v>1.678872017957238</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.885871585528858</v>
@@ -16661,7 +16601,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.747022764633764</v>
+        <v>1.702798367783972</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.187301760537843</v>
@@ -16750,7 +16690,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.754557534400889</v>
+        <v>1.708540647020938</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.814391815412526</v>
@@ -16839,7 +16779,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.738326649556197</v>
+        <v>1.697883693900675</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.02488892700451</v>
@@ -16928,7 +16868,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.749881568492303</v>
+        <v>1.709787552378081</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.726516543189543</v>
@@ -17017,7 +16957,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.739684417217534</v>
+        <v>1.703740413104094</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.147663695163815</v>
@@ -17106,7 +17046,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.718937513223691</v>
+        <v>1.691803252361466</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.291786094901613</v>
@@ -17195,7 +17135,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.726405856089336</v>
+        <v>1.701682475575924</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.091526289055632</v>
@@ -17284,7 +17224,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.711811713747012</v>
+        <v>1.693475537383953</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.237130771663154</v>
@@ -17373,7 +17313,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.707492095946387</v>
+        <v>1.697015438790729</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.253217080574885</v>
@@ -17462,7 +17402,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.716676689612866</v>
+        <v>1.700186295097657</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.512055425698676</v>
@@ -17551,7 +17491,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.709936357956027</v>
+        <v>1.692411308130538</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.775581906069858</v>
@@ -17640,7 +17580,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.699249793583922</v>
+        <v>1.682680333190965</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.53851956759696</v>
@@ -17729,7 +17669,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.652529296909396</v>
+        <v>1.648372472001394</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.459023381054884</v>
@@ -17818,7 +17758,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.615819854442315</v>
+        <v>1.622844127751932</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.471926815970778</v>
@@ -17907,7 +17847,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.626595125471635</v>
+        <v>1.629753372438775</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.463197945009216</v>
@@ -17996,7 +17936,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.626214341997957</v>
+        <v>1.626647296967874</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.48049862647624</v>
@@ -18085,7 +18025,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.618030146945532</v>
+        <v>1.625218508382819</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.48337609017424</v>
@@ -18174,7 +18114,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.6290015522512</v>
+        <v>1.640140829957142</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.55848101072787</v>
@@ -18263,7 +18203,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.62794836889035</v>
+        <v>1.638995810039293</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.519843946609195</v>
@@ -18352,7 +18292,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.635845083082576</v>
+        <v>1.643877481847845</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.513642813699084</v>
@@ -18441,7 +18381,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.643185237926684</v>
+        <v>1.64932778489245</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.668293721848759</v>
@@ -18530,7 +18470,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.640983216110274</v>
+        <v>1.646637725667246</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.678860735262602</v>
@@ -18619,7 +18559,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.649326010086377</v>
+        <v>1.648730631188993</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.576204819928412</v>
@@ -18708,7 +18648,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.653130218051641</v>
+        <v>1.645766108416748</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.67187094155302</v>
@@ -18797,7 +18737,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.646886204490767</v>
+        <v>1.63983043673767</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.551307057655694</v>
@@ -18886,7 +18826,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.65302044807305</v>
+        <v>1.646322809424155</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.551741026717081</v>
@@ -18975,7 +18915,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.630152122964605</v>
+        <v>1.628207834925335</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.631607702758683</v>
@@ -19064,7 +19004,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.676866235356647</v>
+        <v>1.663905512423676</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.024315715596297</v>
@@ -19350,7 +19290,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.349146142117978</v>
+        <v>1.336658025744824</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.541958869093077</v>
@@ -19439,7 +19379,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.340420983572903</v>
+        <v>1.329150048670563</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.551109793112021</v>
@@ -19528,7 +19468,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.354367466204712</v>
+        <v>1.338394885163909</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.536888456920059</v>
@@ -19617,7 +19557,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.354987320855649</v>
+        <v>1.345729454507402</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.473669894557265</v>
@@ -19706,7 +19646,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.360158769462548</v>
+        <v>1.351113500223342</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.429158991761492</v>
@@ -19795,7 +19735,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.36701079283535</v>
+        <v>1.363738328396825</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.427087030412668</v>
@@ -19884,7 +19824,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.381300015419921</v>
+        <v>1.38173296867784</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.344082945905777</v>
@@ -19973,7 +19913,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.400169196729565</v>
+        <v>1.400085693363773</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.304119308886746</v>
@@ -20062,7 +20002,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.396263395484322</v>
+        <v>1.394278379151943</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.408719952124656</v>
@@ -20151,7 +20091,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.392804755363067</v>
+        <v>1.388887507973925</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.288729303568063</v>
@@ -20240,7 +20180,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.394360753414318</v>
+        <v>1.389003618168653</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.301686595565446</v>
@@ -20329,7 +20269,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.42276395305468</v>
+        <v>1.41352731568982</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.360439139886655</v>
@@ -20418,7 +20358,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.445602377518926</v>
+        <v>1.437472526707514</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.354622253358789</v>
@@ -20507,7 +20447,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.445634586601308</v>
+        <v>1.438527837887589</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.371942746380747</v>
@@ -20596,7 +20536,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.462048042236146</v>
+        <v>1.458203346988191</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.33679870361535</v>
@@ -20685,7 +20625,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.465361244457282</v>
+        <v>1.45612290896142</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.234832085051641</v>
@@ -20774,7 +20714,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.465718281324145</v>
+        <v>1.463656010901062</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.293375476803476</v>
@@ -20863,7 +20803,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.45311260330565</v>
+        <v>1.451966253177648</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.255702448734223</v>
@@ -20952,7 +20892,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.459735597438761</v>
+        <v>1.447264131521341</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.400001419051421</v>
@@ -21041,7 +20981,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.473405087088703</v>
+        <v>1.457515375434022</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.574367786634602</v>
@@ -21130,7 +21070,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.423474371777393</v>
+        <v>1.412830068207365</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.402593551901082</v>
@@ -21219,7 +21159,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.412787744130755</v>
+        <v>1.397444196020466</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.377524818260194</v>
@@ -21308,7 +21248,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.382866771362486</v>
+        <v>1.370315916090616</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.334212431674961</v>
@@ -21397,7 +21337,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.380128990870519</v>
+        <v>1.363277005303359</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.257787014593853</v>
@@ -21486,7 +21426,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.350560952219974</v>
+        <v>1.339464044094768</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.281308198133285</v>
@@ -21575,7 +21515,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.347814554197744</v>
+        <v>1.331533706782928</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.332534850211794</v>
@@ -21664,7 +21604,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.331843375825388</v>
+        <v>1.319013875300661</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.390120375297576</v>
@@ -21753,7 +21693,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.293319571017613</v>
+        <v>1.277743467583221</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.200183288671514</v>
@@ -21842,7 +21782,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.290553630031484</v>
+        <v>1.27320343962331</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.232108426049141</v>
@@ -21931,7 +21871,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.28493457776713</v>
+        <v>1.265479876702768</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.308677285353131</v>
@@ -22020,7 +21960,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.286101715699954</v>
+        <v>1.263688433359249</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.280585277194318</v>
@@ -22109,7 +22049,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.295847032457444</v>
+        <v>1.280655239720109</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.313833095246654</v>
@@ -22198,7 +22138,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.280772841371641</v>
+        <v>1.266525063578818</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.231813056533706</v>
@@ -22287,7 +22227,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.273303592259017</v>
+        <v>1.266037433603125</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.275319049272423</v>
@@ -22376,7 +22316,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.277008912255972</v>
+        <v>1.272003898297935</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.087328532800031</v>
@@ -22465,7 +22405,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.285353784024796</v>
+        <v>1.284758037358442</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.187678783762845</v>
@@ -22554,7 +22494,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.274193882379118</v>
+        <v>1.273107166102446</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.183835997093696</v>
@@ -22643,7 +22583,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.274100141653973</v>
+        <v>1.276553211265243</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.238388576290463</v>
@@ -22732,7 +22672,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.255387400346512</v>
+        <v>1.253935946722119</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.238909734910754</v>
@@ -22821,7 +22761,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.262289536664447</v>
+        <v>1.264063453193077</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.261121423458468</v>
@@ -22910,7 +22850,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.279500193419838</v>
+        <v>1.285837128060953</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.111864085977549</v>
@@ -22999,7 +22939,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.297916599971827</v>
+        <v>1.30902182204751</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.13625806103973</v>
@@ -23088,7 +23028,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.322007905517476</v>
+        <v>1.33236051988193</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.292196174637574</v>
@@ -23177,7 +23117,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.35300842301107</v>
+        <v>1.365675228018024</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.267324371575739</v>
@@ -23266,7 +23206,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.347463694877804</v>
+        <v>1.355757663381468</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.283103122030781</v>
@@ -23355,7 +23295,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.35969585208677</v>
+        <v>1.364312162003292</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.29931705929219</v>
@@ -23444,7 +23384,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.355361134801954</v>
+        <v>1.358935094884747</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.194717380724041</v>
@@ -23533,7 +23473,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.357904475441798</v>
+        <v>1.357511907909099</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.162903852232573</v>
@@ -23622,7 +23562,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.372802268875773</v>
+        <v>1.367032368455207</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.290626844258429</v>
@@ -23711,7 +23651,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.363518216648186</v>
+        <v>1.362954123152697</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.175220579211717</v>
@@ -23800,7 +23740,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.368118483909808</v>
+        <v>1.367261727093566</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.303845647409617</v>
@@ -23889,7 +23829,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.372381895222888</v>
+        <v>1.365058553082608</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.047683852429923</v>
@@ -23978,7 +23918,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.398596457511009</v>
+        <v>1.391056412337248</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.280637341641257</v>
@@ -24264,7 +24204,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.168151395486689</v>
+        <v>1.156921669466107</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.091509495096953</v>
@@ -24353,7 +24293,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.162800138618048</v>
+        <v>1.14815767251838</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.174149745760072</v>
@@ -24442,7 +24382,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.170055124226643</v>
+        <v>1.154069777165622</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.213790445582585</v>
@@ -24531,7 +24471,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.1639824330066</v>
+        <v>1.150264382512873</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.077995405132892</v>
@@ -24620,7 +24560,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.163796089293724</v>
+        <v>1.148991021394669</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.156463912556664</v>
@@ -24709,7 +24649,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.159248015349859</v>
+        <v>1.144738771696618</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.16849977133414</v>
@@ -24798,7 +24738,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.161727641112583</v>
+        <v>1.148471459525554</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.974314506625733</v>
@@ -24887,7 +24827,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.156270837511955</v>
+        <v>1.140851667082057</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.049322459231108</v>
@@ -24976,7 +24916,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.144513094566745</v>
+        <v>1.128228998098484</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.136357508961305</v>
@@ -25065,7 +25005,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.14269457025988</v>
+        <v>1.123203170533126</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.930935768339935</v>
@@ -25154,7 +25094,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.1378996154473</v>
+        <v>1.119251287800364</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.106530406241488</v>
@@ -25243,7 +25183,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.128508022136838</v>
+        <v>1.113502135583482</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.074353123625082</v>
@@ -25332,7 +25272,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.135871642172451</v>
+        <v>1.124318045977311</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.056886791552097</v>
@@ -25421,7 +25361,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.139056892949324</v>
+        <v>1.126868799092156</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.018015466468606</v>
@@ -25510,7 +25450,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.140049977246836</v>
+        <v>1.130206713287087</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.052073523901718</v>
@@ -25599,7 +25539,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.147962294492112</v>
+        <v>1.136866859101733</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.014019952048431</v>
@@ -25688,7 +25628,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.158135068784423</v>
+        <v>1.149927354227278</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.924018085009926</v>
@@ -25777,7 +25717,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.158429288647559</v>
+        <v>1.153703304025974</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.882679932505564</v>
@@ -25866,7 +25806,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.172908307292629</v>
+        <v>1.167472051639345</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.850313180550766</v>
@@ -25955,7 +25895,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.177694728961352</v>
+        <v>1.176109941877825</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.987391871986595</v>
@@ -26044,7 +25984,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.198548078235283</v>
+        <v>1.196801653969686</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.005111999937809</v>
@@ -26133,7 +26073,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.225291280138515</v>
+        <v>1.225126361560173</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.86231856183108</v>
@@ -26222,7 +26162,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.247625649163774</v>
+        <v>1.248283791570501</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.87453260925345</v>
@@ -26311,7 +26251,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.280004209186132</v>
+        <v>1.28182755537376</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.01362197693989</v>
@@ -26400,7 +26340,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.289538327376767</v>
+        <v>1.28691023847618</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.915550489098134</v>
@@ -26489,7 +26429,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.350207017421373</v>
+        <v>1.348603052018664</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.849491817344818</v>
@@ -26578,7 +26518,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.379077798483582</v>
+        <v>1.37334816256944</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.249425761648375</v>
@@ -26667,7 +26607,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.379512526548953</v>
+        <v>1.375312625603466</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.241376581767855</v>
@@ -26756,7 +26696,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.409968723105857</v>
+        <v>1.402115335879307</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.07005573544413</v>
@@ -26845,7 +26785,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.390397750109214</v>
+        <v>1.375004002956933</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.263400766649992</v>
@@ -26934,7 +26874,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.386875444147803</v>
+        <v>1.374467383566089</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.293160640977583</v>
@@ -27023,7 +26963,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.376840704808766</v>
+        <v>1.366906321097617</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.016786087308971</v>
@@ -27112,7 +27052,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.37126920037171</v>
+        <v>1.356649533014915</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.048217264068804</v>
@@ -27201,7 +27141,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.356518492009694</v>
+        <v>1.345813750792075</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.108598455255854</v>
@@ -27290,7 +27230,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.358597550149547</v>
+        <v>1.347193424571018</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.099510985618856</v>
@@ -27379,7 +27319,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.358009632606163</v>
+        <v>1.347032413082388</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.036225788765933</v>
@@ -27468,7 +27408,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.343022699311247</v>
+        <v>1.329077659337732</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.111092962318289</v>
@@ -27557,7 +27497,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.313918168965272</v>
+        <v>1.308611400628301</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.11356398116358</v>
@@ -27646,7 +27586,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.307430233821466</v>
+        <v>1.301971307142798</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.098700344964409</v>
@@ -27735,7 +27675,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.298853586427901</v>
+        <v>1.288142049607245</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.131631486391035</v>
@@ -27824,7 +27764,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.283043303128466</v>
+        <v>1.275865178930321</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.187583769023994</v>
@@ -27913,7 +27853,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.27834775874762</v>
+        <v>1.27266759077251</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.146586140854288</v>
@@ -28002,7 +27942,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.26925050548482</v>
+        <v>1.260563116370872</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.156615561770382</v>
@@ -28091,7 +28031,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.27815553111164</v>
+        <v>1.27249058809043</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.10490814478642</v>
@@ -28180,7 +28120,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.309038890486981</v>
+        <v>1.30847643993348</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.249411837209797</v>
@@ -28269,7 +28209,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.315607083702452</v>
+        <v>1.313835370999149</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.93794783913068</v>
@@ -28358,7 +28298,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.296761258792724</v>
+        <v>1.283862271524576</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.069873255387352</v>
@@ -28447,7 +28387,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.303354938015121</v>
+        <v>1.297975683331015</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.03048265858194</v>
@@ -28536,7 +28476,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.31334295686158</v>
+        <v>1.309525169709625</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.07808783601595</v>
@@ -28625,7 +28565,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.318952150693886</v>
+        <v>1.308112108302088</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.104710348311083</v>
@@ -28714,7 +28654,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.30006829584813</v>
+        <v>1.290900318569967</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.100792516850512</v>
@@ -28803,7 +28743,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.295115418450059</v>
+        <v>1.287347919963847</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.094491077153071</v>
@@ -28892,7 +28832,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.306007720156152</v>
+        <v>1.293963806750654</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.134117430371318</v>
@@ -29178,7 +29118,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.43996013252841</v>
+        <v>1.455278547463828</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.850964376534721</v>
@@ -29267,7 +29207,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.43408933943916</v>
+        <v>1.449837368276105</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.821875605340409</v>
@@ -29356,7 +29296,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.447895469990975</v>
+        <v>1.461308604633742</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.824711373498437</v>
@@ -29445,7 +29385,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.457072804525266</v>
+        <v>1.472446274143886</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.91698582518057</v>
@@ -29534,7 +29474,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.543407851863134</v>
+        <v>1.561108538011169</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.412714221030754</v>
@@ -29623,7 +29563,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.551739273917385</v>
+        <v>1.572695746767969</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.845399823389259</v>
@@ -29712,7 +29652,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.554540770228641</v>
+        <v>1.57655410173203</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.775112441435597</v>
@@ -29801,7 +29741,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.560084355766469</v>
+        <v>1.582198159681003</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.73583898327936</v>
@@ -29890,7 +29830,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.552121374604589</v>
+        <v>1.572884222594504</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.703449667721805</v>
@@ -29979,7 +29919,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.560001084418554</v>
+        <v>1.575749987881025</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.652558819324799</v>
@@ -30068,7 +30008,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.539391899457875</v>
+        <v>1.559167001462242</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.701431677222366</v>
@@ -30157,7 +30097,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.540161315912765</v>
+        <v>1.561296385466759</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.943018328335771</v>
@@ -30246,7 +30186,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.55004616613346</v>
+        <v>1.570301212821444</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.707052980038057</v>
@@ -30335,7 +30275,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.561421264403473</v>
+        <v>1.579413354248029</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.002851397566685</v>
@@ -30424,7 +30364,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.568629312249033</v>
+        <v>1.589280369560449</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.888783577189547</v>
@@ -30513,7 +30453,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.589478067953132</v>
+        <v>1.605359246403879</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.119074979598483</v>
@@ -30602,7 +30542,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.592925076471654</v>
+        <v>1.604056347505159</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.747467768275206</v>
@@ -30691,7 +30631,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.587223614742588</v>
+        <v>1.601017681044403</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.800954460487096</v>
@@ -30780,7 +30720,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.609741089206046</v>
+        <v>1.618592312069658</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.599190412679687</v>
@@ -30869,7 +30809,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.612257114227231</v>
+        <v>1.619677639277056</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.967393861471603</v>
@@ -30958,7 +30898,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.608712699885004</v>
+        <v>1.615435319226448</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.008770234126533</v>
@@ -31047,7 +30987,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.630538432456124</v>
+        <v>1.635186585906299</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.490970868102247</v>
@@ -31136,7 +31076,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.651451822441986</v>
+        <v>1.650533117396005</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.066584754417181</v>
@@ -31225,7 +31165,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.654398735096298</v>
+        <v>1.654211767931014</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.826442385384558</v>
@@ -31314,7 +31254,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.620139263749177</v>
+        <v>1.624908974499168</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.40902859412716</v>
@@ -31403,7 +31343,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.654061307075929</v>
+        <v>1.654485446672264</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.871348774190635</v>
@@ -31492,7 +31432,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.645419666372236</v>
+        <v>1.644841846112482</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.014727646307024</v>
@@ -31581,7 +31521,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.605473239732471</v>
+        <v>1.603752259541803</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.419754618638624</v>
@@ -31670,7 +31610,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.566237487713381</v>
+        <v>1.573127105658847</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.572444253264326</v>
@@ -31759,7 +31699,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.547652910349399</v>
+        <v>1.558327711287995</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.699645936724846</v>
@@ -31848,7 +31788,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.512467501774467</v>
+        <v>1.526869781327817</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.521212663044595</v>
@@ -31937,7 +31877,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.520729376793387</v>
+        <v>1.533721016466218</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.215447667000152</v>
@@ -32026,7 +31966,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.499412514599876</v>
+        <v>1.514694773247085</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.637696386603586</v>
@@ -32115,7 +32055,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.481045123423204</v>
+        <v>1.498535763196653</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.626385032839275</v>
@@ -32204,7 +32144,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.486107602479845</v>
+        <v>1.505084920335968</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.561431533861044</v>
@@ -32293,7 +32233,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.500579146324434</v>
+        <v>1.515802521599666</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.588190210283488</v>
@@ -32382,7 +32322,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.482795502742642</v>
+        <v>1.49182298946772</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.511273354684493</v>
@@ -32471,7 +32411,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.46162061106051</v>
+        <v>1.475752930179126</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.46892445138242</v>
@@ -32560,7 +32500,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.451893852955533</v>
+        <v>1.462619708061078</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.442387718096597</v>
@@ -32649,7 +32589,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.471144082313193</v>
+        <v>1.473328803422929</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.835151253402856</v>
@@ -32738,7 +32678,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.422353270072707</v>
+        <v>1.441673469465264</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.883966510937724</v>
@@ -32827,7 +32767,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.431036591356464</v>
+        <v>1.451049716690162</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.92785447866191</v>
@@ -32916,7 +32856,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.46076949144332</v>
+        <v>1.478501085762563</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.955225083200312</v>
@@ -33005,7 +32945,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.502821865628097</v>
+        <v>1.518355990390664</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.005051909866822</v>
@@ -33094,7 +33034,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.529270686354483</v>
+        <v>1.542396925314632</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.04732295763872</v>
@@ -33183,7 +33123,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.556064937379043</v>
+        <v>1.565453624962991</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.101503798642725</v>
@@ -33272,7 +33212,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.538865589475332</v>
+        <v>1.545497769999221</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.098879341372783</v>
@@ -33361,7 +33301,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.549488484386207</v>
+        <v>1.555476830087365</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.091294201027863</v>
@@ -33450,7 +33390,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.548343378867804</v>
+        <v>1.554898777880346</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.078278970311647</v>
@@ -33539,7 +33479,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.537258420879567</v>
+        <v>1.54284077780661</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.097344597163495</v>
@@ -33628,7 +33568,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.534031470745439</v>
+        <v>1.536602824474677</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.1115043384446</v>
@@ -33717,7 +33657,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.536700063373871</v>
+        <v>1.544215835105817</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.112541766847326</v>
@@ -33806,7 +33746,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.545925619775154</v>
+        <v>1.549469857872288</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.091190685299486</v>
